--- a/summer_2019_edited_csv/Copy of Dutton_2018_table2.2.xlsx
+++ b/summer_2019_edited_csv/Copy of Dutton_2018_table2.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\summer_2019_edited_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Summer2019\id test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93ABE6E-EE46-4633-AA89-1897695EB564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6299310-4CA2-4A89-9D0D-41F46F6BEE93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{B5DE2A3F-3B54-4DC2-B1BA-AF16F60F73A6}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" xr2:uid="{B5DE2A3F-3B54-4DC2-B1BA-AF16F60F73A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,40 +261,40 @@
     <t>prey taxon</t>
   </si>
   <si>
-    <t>Scaphirhynchus_albus_321_468_mm_27_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_321_468_mm_27_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_390_675_mm_15_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_390_675_mm_15_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_297_828_mm_24_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_297_828_mm_24_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_235_628_mm_15_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_235_628_mm_15_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_352_1167_mm_108_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_albus_352_1167_mm_108_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_254_587_mm_14_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
-  </si>
-  <si>
-    <t>Scaphirhynchus_platorynchus_254_587_mm_14_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_MontanaStateUniversity_MontanaStateUniversityBrockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+    <t>Scaphirhynchus_albus_321_468_mm_27_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_321_468_mm_27_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_390_675_mm_15_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_390_675_mm_15_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_297_828_mm_24_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_297_828_mm_24_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_235_628_mm_15_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_235_628_mm_15_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_352_1167_mm_108_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_albus_352_1167_mm_108_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_254_587_mm_14_2013_Jun_na_2016_Oct_na_river_percOccurence_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
+  </si>
+  <si>
+    <t>Scaphirhynchus_platorynchus_254_587_mm_14_2013_Jun_na_2016_Oct_na_river_percWeight_percent_Dutton_2018_Montana State University_Brockton, Montana, United States_na_fork length_weekly (May-June), daily (July-August), periodic (September-October)_Dutton, A. J. (2018). Feeding ecology and food-web interactions of the fish assemblage in the upper Missouri River and lower Yellowstone River with an emphasis on pallid sturgeon conservation (Doctoral dissertation, Montana State University-Bozeman, College of Letters &amp; Science)._tbl2.2</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
